--- a/Analytics/E0/epl_shirts_e0.xlsx
+++ b/Analytics/E0/epl_shirts_e0.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
     <t>Man City</t>
   </si>
   <si>
-    <t>Sheffield United</t>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
   </si>
   <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("Tepl_shirts")</t>
   </si>
   <si>
-    <t>SUM("Tepl_shirts") / 38</t>
+    <t>SUM("Tepl_shirts") / 10</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>1379.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1309.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1271.0</v>
+        <v>267.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1130.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>1080.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>1068.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1054.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>1049.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>1044.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>1036.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1032.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>1028.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>982.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>950.0</v>
+        <v>162.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>886.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>872.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>805.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>796.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>688.0</v>
+        <v>120.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>1327.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>1290.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>1212.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.0</v>
+        <v>282.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>1124.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>1105.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>1088.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>1082.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>1053.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>1035.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>999.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>990.0</v>
+        <v>167.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>960.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>954.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>909.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>858.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>821.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>820.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>749.0</v>
+        <v>119.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>2669.0</v>
+        <v>564.0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.23684210526316</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>2457.0</v>
+        <v>532.0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.65789473684211</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>2397.0</v>
+        <v>500.0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.078947368421055</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="5">
@@ -745,10 +745,10 @@
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>2292.0</v>
+        <v>492.0</v>
       </c>
       <c r="D5" t="n">
-        <v>60.31578947368421</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>2292.0</v>
+        <v>485.0</v>
       </c>
       <c r="D6" t="n">
-        <v>60.31578947368421</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>2231.0</v>
+        <v>474.0</v>
       </c>
       <c r="D7" t="n">
-        <v>58.71052631578947</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>2151.0</v>
+        <v>470.0</v>
       </c>
       <c r="D8" t="n">
-        <v>56.60526315789474</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>2136.0</v>
+        <v>458.0</v>
       </c>
       <c r="D9" t="n">
-        <v>56.21052631578947</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>2114.0</v>
+        <v>398.0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.63157894736842</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.0</v>
+        <v>398.0</v>
       </c>
       <c r="D11" t="n">
-        <v>55.31578947368421</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>2058.0</v>
+        <v>388.0</v>
       </c>
       <c r="D12" t="n">
-        <v>54.1578947368421</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>2043.0</v>
+        <v>380.0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.76315789473684</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>1977.0</v>
+        <v>378.0</v>
       </c>
       <c r="D14" t="n">
-        <v>52.026315789473685</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>1945.0</v>
+        <v>352.0</v>
       </c>
       <c r="D15" t="n">
-        <v>51.18421052631579</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>1921.0</v>
+        <v>343.0</v>
       </c>
       <c r="D16" t="n">
-        <v>50.55263157894737</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="17">
@@ -913,10 +913,10 @@
         <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>1849.0</v>
+        <v>304.0</v>
       </c>
       <c r="D17" t="n">
-        <v>48.6578947368421</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>1770.0</v>
+        <v>296.0</v>
       </c>
       <c r="D18" t="n">
-        <v>46.578947368421055</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>1750.0</v>
+        <v>291.0</v>
       </c>
       <c r="D19" t="n">
-        <v>46.05263157894737</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>1663.0</v>
+        <v>281.0</v>
       </c>
       <c r="D20" t="n">
-        <v>43.76315789473684</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>1437.0</v>
+        <v>270.0</v>
       </c>
       <c r="D21" t="n">
-        <v>37.81578947368421</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E0/epl_shirts_e0.xlsx
+++ b/Analytics/E0/epl_shirts_e0.xlsx
@@ -85,61 +85,61 @@
     <t>Tottenham</t>
   </si>
   <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
     <t>Brighton</t>
   </si>
   <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Fulham</t>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Leicester</t>
   </si>
   <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Southampton</t>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Everton</t>
   </si>
   <si>
     <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>285.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>277.0</v>
+        <v>497.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>267.0</v>
+        <v>435.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>265.0</v>
+        <v>421.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>254.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>240.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>231.0</v>
+        <v>373.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>227.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>218.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>212.0</v>
+        <v>352.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>181.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>180.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>174.0</v>
+        <v>314.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>173.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>162.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>151.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>150.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>131.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>129.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>120.0</v>
+        <v>220.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>365.0</v>
+        <v>494.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>297.0</v>
+        <v>489.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>287.0</v>
+        <v>479.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>282.0</v>
+        <v>454.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>252.0</v>
+        <v>406.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>247.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>247.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>197.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>193.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>191.0</v>
+        <v>356.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>176.0</v>
+        <v>347.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>172.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>167.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0</v>
+        <v>284.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>141.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>140.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>133.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>130.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
-        <v>126.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>119.0</v>
+        <v>172.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>564.0</v>
+        <v>894.0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.4</v>
+        <v>89.4</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>532.0</v>
+        <v>847.0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.2</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>500.0</v>
+        <v>846.0</v>
       </c>
       <c r="D4" t="n">
-        <v>50.0</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>492.0</v>
+        <v>804.0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.2</v>
+        <v>80.4</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>485.0</v>
+        <v>789.0</v>
       </c>
       <c r="D6" t="n">
-        <v>48.5</v>
+        <v>78.9</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>474.0</v>
+        <v>781.0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4</v>
+        <v>78.1</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>470.0</v>
+        <v>761.0</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0</v>
+        <v>76.1</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>458.0</v>
+        <v>729.0</v>
       </c>
       <c r="D9" t="n">
-        <v>45.8</v>
+        <v>72.9</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>398.0</v>
+        <v>713.0</v>
       </c>
       <c r="D10" t="n">
-        <v>39.8</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>398.0</v>
+        <v>705.0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.8</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
-        <v>388.0</v>
+        <v>670.0</v>
       </c>
       <c r="D12" t="n">
-        <v>38.8</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>380.0</v>
+        <v>659.0</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0</v>
+        <v>65.9</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>378.0</v>
+        <v>655.0</v>
       </c>
       <c r="D14" t="n">
-        <v>37.8</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>352.0</v>
+        <v>634.0</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>343.0</v>
+        <v>617.0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.3</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>304.0</v>
+        <v>591.0</v>
       </c>
       <c r="D17" t="n">
-        <v>30.4</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>296.0</v>
+        <v>576.0</v>
       </c>
       <c r="D18" t="n">
-        <v>29.6</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>291.0</v>
+        <v>525.0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.1</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>281.0</v>
+        <v>402.0</v>
       </c>
       <c r="D20" t="n">
-        <v>28.1</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>270.0</v>
+        <v>265.0</v>
       </c>
       <c r="D21" t="n">
-        <v>27.0</v>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
